--- a/2025-10-21/21_oddspedia_fixtures.xlsx
+++ b/2025-10-21/21_oddspedia_fixtures.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83 of 88 Tips</t>
+          <t>85 of 90 Tips</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -530,7 +530,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>62 of 67 Tips</t>
+          <t>63 of 68 Tips</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -540,7 +540,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.28</t>
         </is>
       </c>
     </row>
@@ -567,12 +567,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>53 of 66 Tips</t>
+          <t>54 of 67 Tips</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>81</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>47 of 53 Tips</t>
+          <t>48 of 54 Tips</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -641,12 +641,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>44 of 54 Tips</t>
+          <t>45 of 55 Tips</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>82</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>39 of 47 Tips</t>
+          <t>40 of 48 Tips</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31 of 41 Tips</t>
+          <t>33 of 43 Tips</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>77</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>16 of 16 Tips</t>
+          <t>17 of 17 Tips</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
